--- a/ARCHIVE/deployment/Omaha_Cal_Info_CE02SHSP_00003.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CE02SHSP_00003.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaesm/Documents/dev/repos/ooi-integration/asset-management/ARCHIVE/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="465" windowWidth="25605" windowHeight="16065" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,15 @@
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$50</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2260,28 +2268,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>115</v>
       </c>
@@ -2338,7 +2346,9 @@
       <c r="F2" s="30">
         <v>0.75</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="31">
+        <v>42645</v>
+      </c>
       <c r="H2" s="32">
         <v>44.637805999999998</v>
       </c>
@@ -2354,37 +2364,37 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -2392,55 +2402,55 @@
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2449,40 +2459,35 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="17" style="34" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2522,7 +2527,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>106</v>
       </c>
@@ -2549,7 +2554,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2559,7 +2564,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="47"/>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>113</v>
       </c>
@@ -2588,7 +2593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>113</v>
       </c>
@@ -2617,7 +2622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="22"/>
@@ -2628,7 +2633,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>107</v>
       </c>
@@ -2657,7 +2662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>107</v>
       </c>
@@ -2686,7 +2691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>107</v>
       </c>
@@ -2715,7 +2720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>107</v>
       </c>
@@ -2744,7 +2749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="22"/>
@@ -2755,7 +2760,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
@@ -2784,7 +2789,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>112</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>112</v>
       </c>
@@ -2842,7 +2847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>112</v>
       </c>
@@ -2871,7 +2876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>112</v>
       </c>
@@ -2900,7 +2905,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>112</v>
       </c>
@@ -2929,7 +2934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>112</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>112</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>112</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>112</v>
       </c>
@@ -3045,7 +3050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
@@ -3056,7 +3061,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>110</v>
       </c>
@@ -3085,7 +3090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>110</v>
       </c>
@@ -3114,7 +3119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>110</v>
       </c>
@@ -3143,7 +3148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>110</v>
       </c>
@@ -3172,7 +3177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>110</v>
       </c>
@@ -3201,7 +3206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>110</v>
       </c>
@@ -3230,7 +3235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>110</v>
       </c>
@@ -3259,7 +3264,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="22"/>
@@ -3270,7 +3275,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>109</v>
       </c>
@@ -3299,7 +3304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>109</v>
       </c>
@@ -3326,7 +3331,7 @@
       </c>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>109</v>
       </c>
@@ -3353,7 +3358,7 @@
       </c>
       <c r="I34" s="25"/>
     </row>
-    <row r="35" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>109</v>
       </c>
@@ -3380,7 +3385,7 @@
       </c>
       <c r="I35" s="25"/>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>109</v>
       </c>
@@ -3407,7 +3412,7 @@
       </c>
       <c r="I36" s="25"/>
     </row>
-    <row r="37" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
@@ -3434,7 +3439,7 @@
       </c>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>109</v>
       </c>
@@ -3461,7 +3466,7 @@
       </c>
       <c r="I38" s="25"/>
     </row>
-    <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>109</v>
       </c>
@@ -3488,7 +3493,7 @@
       </c>
       <c r="I39" s="25"/>
     </row>
-    <row r="40" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="22"/>
@@ -3499,7 +3504,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>114</v>
       </c>
@@ -3526,7 +3531,7 @@
       </c>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>114</v>
       </c>
@@ -3553,7 +3558,7 @@
       </c>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>114</v>
       </c>
@@ -3580,7 +3585,7 @@
       </c>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -3593,7 +3598,7 @@
       <c r="L44" s="7"/>
       <c r="P44" s="7"/>
     </row>
-    <row r="45" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>111</v>
       </c>
@@ -3620,7 +3625,7 @@
       </c>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>111</v>
       </c>
@@ -3647,7 +3652,7 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>111</v>
       </c>
@@ -3674,7 +3679,7 @@
       </c>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="22"/>
@@ -3685,7 +3690,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>108</v>
       </c>
@@ -3714,7 +3719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>108</v>
       </c>
@@ -3743,10 +3748,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F51" s="34"/>
     </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F52" s="34"/>
     </row>
   </sheetData>
@@ -3764,12 +3769,12 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="16384" width="8.83203125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="45">
         <v>3.1766000000000003E-2</v>
       </c>
@@ -3876,7 +3881,7 @@
         <v>1.8979999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="45">
         <v>2.9176000000000001E-2</v>
       </c>
@@ -3983,7 +3988,7 @@
         <v>-1.3829999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="45">
         <v>3.3319000000000001E-2</v>
       </c>
@@ -4090,7 +4095,7 @@
         <v>-5.6990000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="45">
         <v>3.7613000000000001E-2</v>
       </c>
@@ -4197,7 +4202,7 @@
         <v>-9.3690000000000006E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
         <v>3.9368E-2</v>
       </c>
@@ -4304,7 +4309,7 @@
         <v>-1.0961E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
         <v>3.9926999999999997E-2</v>
       </c>
@@ -4411,7 +4416,7 @@
         <v>-1.0957E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
         <v>3.6708999999999999E-2</v>
       </c>
@@ -4518,7 +4523,7 @@
         <v>-9.8890000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="45">
         <v>3.3551999999999998E-2</v>
       </c>
@@ -4625,7 +4630,7 @@
         <v>-9.7059999999999994E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
         <v>2.9574E-2</v>
       </c>
@@ -4732,7 +4737,7 @@
         <v>-8.6049999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <v>2.6667E-2</v>
       </c>
@@ -4839,7 +4844,7 @@
         <v>-7.6689999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="45">
         <v>2.3782000000000001E-2</v>
       </c>
@@ -4946,7 +4951,7 @@
         <v>-7.0889999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="45">
         <v>2.1416999999999999E-2</v>
       </c>
@@ -5053,7 +5058,7 @@
         <v>-6.3619999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="45">
         <v>1.9324999999999998E-2</v>
       </c>
@@ -5160,7 +5165,7 @@
         <v>-5.744E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="45">
         <v>1.8001E-2</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>-5.1859999999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="45">
         <v>1.7135000000000001E-2</v>
       </c>
@@ -5374,7 +5379,7 @@
         <v>-4.522E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="45">
         <v>1.6084999999999999E-2</v>
       </c>
@@ -5481,7 +5486,7 @@
         <v>-4.0610000000000004E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="45">
         <v>1.5429999999999999E-2</v>
       </c>
@@ -5588,7 +5593,7 @@
         <v>-3.637E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="45">
         <v>1.5236E-2</v>
       </c>
@@ -5695,7 +5700,7 @@
         <v>-3.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="45">
         <v>1.4492E-2</v>
       </c>
@@ -5802,7 +5807,7 @@
         <v>-2.6580000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="45">
         <v>1.4019E-2</v>
       </c>
@@ -5909,7 +5914,7 @@
         <v>-2.2750000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="45">
         <v>1.3509999999999999E-2</v>
       </c>
@@ -6016,7 +6021,7 @@
         <v>-1.8370000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="45">
         <v>1.3069000000000001E-2</v>
       </c>
@@ -6123,7 +6128,7 @@
         <v>-1.537E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="45">
         <v>1.2737E-2</v>
       </c>
@@ -6230,7 +6235,7 @@
         <v>-1.193E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="45">
         <v>1.2456E-2</v>
       </c>
@@ -6337,7 +6342,7 @@
         <v>-8.2799999999999996E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="45">
         <v>1.2144E-2</v>
       </c>
@@ -6444,7 +6449,7 @@
         <v>-5.8399999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="45">
         <v>1.1847999999999999E-2</v>
       </c>
@@ -6551,7 +6556,7 @@
         <v>-3.1399999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="45">
         <v>1.1124E-2</v>
       </c>
@@ -6658,7 +6663,7 @@
         <v>-1.15E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="45">
         <v>1.0923E-2</v>
       </c>
@@ -6765,7 +6770,7 @@
         <v>1.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="45">
         <v>1.0371999999999999E-2</v>
       </c>
@@ -6872,7 +6877,7 @@
         <v>3.5599999999999998E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="45">
         <v>9.8289999999999992E-3</v>
       </c>
@@ -6979,7 +6984,7 @@
         <v>5.7799999999999995E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="45">
         <v>9.3030000000000005E-3</v>
       </c>
@@ -7086,7 +7091,7 @@
         <v>6.2600000000000004E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="45">
         <v>9.1400000000000006E-3</v>
       </c>
@@ -7193,7 +7198,7 @@
         <v>8.6200000000000003E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="45">
         <v>8.5839999999999996E-3</v>
       </c>
@@ -7300,7 +7305,7 @@
         <v>8.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="45">
         <v>8.1709999999999994E-3</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>9.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="45">
         <v>8.0420000000000005E-3</v>
       </c>
@@ -7514,7 +7519,7 @@
         <v>9.990000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="45">
         <v>7.8120000000000004E-3</v>
       </c>
@@ -7621,7 +7626,7 @@
         <v>1.0150000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="45">
         <v>7.4120000000000002E-3</v>
       </c>
@@ -7728,7 +7733,7 @@
         <v>1.0640000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="45">
         <v>7.0029999999999997E-3</v>
       </c>
@@ -7835,7 +7840,7 @@
         <v>1.0610000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="45">
         <v>6.5760000000000002E-3</v>
       </c>
@@ -7942,7 +7947,7 @@
         <v>1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="45">
         <v>6.4349999999999997E-3</v>
       </c>
@@ -8049,7 +8054,7 @@
         <v>1.044E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="45">
         <v>6.2839999999999997E-3</v>
       </c>
@@ -8156,7 +8161,7 @@
         <v>1.1329999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="45">
         <v>6.208E-3</v>
       </c>
@@ -8263,7 +8268,7 @@
         <v>1.163E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="45">
         <v>6.1029999999999999E-3</v>
       </c>
@@ -8370,7 +8375,7 @@
         <v>1.2620000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="45">
         <v>5.3600000000000002E-3</v>
       </c>
@@ -8477,7 +8482,7 @@
         <v>9.6500000000000004E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="45">
         <v>5.3420000000000004E-3</v>
       </c>
@@ -8584,7 +8589,7 @@
         <v>9.7099999999999997E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="45">
         <v>5.176E-3</v>
       </c>
@@ -8691,7 +8696,7 @@
         <v>1.052E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="45">
         <v>4.9030000000000002E-3</v>
       </c>
@@ -8798,7 +8803,7 @@
         <v>1.0380000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="45">
         <v>4.6639999999999997E-3</v>
       </c>
@@ -8905,7 +8910,7 @@
         <v>1.085E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="45">
         <v>4.1099999999999999E-3</v>
       </c>
@@ -9012,7 +9017,7 @@
         <v>1.1100000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="45">
         <v>3.4129999999999998E-3</v>
       </c>
@@ -9119,7 +9124,7 @@
         <v>1.121E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="45">
         <v>3.0040000000000002E-3</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>1.077E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="45">
         <v>2.7070000000000002E-3</v>
       </c>
@@ -9333,7 +9338,7 @@
         <v>1.127E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>2.3869999999999998E-3</v>
       </c>
@@ -9440,7 +9445,7 @@
         <v>1.1839999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="45">
         <v>2.2550000000000001E-3</v>
       </c>
@@ -9547,7 +9552,7 @@
         <v>1.1709999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="45">
         <v>2.2629999999999998E-3</v>
       </c>
@@ -9654,7 +9659,7 @@
         <v>1.1739999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="45">
         <v>2.359E-3</v>
       </c>
@@ -9761,7 +9766,7 @@
         <v>1.2520000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="45">
         <v>2.3760000000000001E-3</v>
       </c>
@@ -9868,7 +9873,7 @@
         <v>1.1709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="45">
         <v>2.5560000000000001E-3</v>
       </c>
@@ -9975,7 +9980,7 @@
         <v>1.235E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="45">
         <v>2.696E-3</v>
       </c>
@@ -10082,7 +10087,7 @@
         <v>1.2650000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="45">
         <v>2.7680000000000001E-3</v>
       </c>
@@ -10189,7 +10194,7 @@
         <v>1.2080000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="45">
         <v>2.9039999999999999E-3</v>
       </c>
@@ -10296,7 +10301,7 @@
         <v>1.273E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="45">
         <v>2.8939999999999999E-3</v>
       </c>
@@ -10403,7 +10408,7 @@
         <v>1.225E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="45">
         <v>2.7920000000000002E-3</v>
       </c>
@@ -10510,7 +10515,7 @@
         <v>1.2340000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="45">
         <v>2.9849999999999998E-3</v>
       </c>
@@ -10617,7 +10622,7 @@
         <v>1.317E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="45">
         <v>3.1870000000000002E-3</v>
       </c>
@@ -10724,7 +10729,7 @@
         <v>1.3190000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
         <v>3.2320000000000001E-3</v>
       </c>
@@ -10831,7 +10836,7 @@
         <v>1.335E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="45">
         <v>3.2539999999999999E-3</v>
       </c>
@@ -10938,7 +10943,7 @@
         <v>1.413E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="45">
         <v>3.3579999999999999E-3</v>
       </c>
@@ -11045,7 +11050,7 @@
         <v>1.4450000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="45">
         <v>3.4529999999999999E-3</v>
       </c>
@@ -11152,7 +11157,7 @@
         <v>1.4400000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="45">
         <v>3.5460000000000001E-3</v>
       </c>
@@ -11259,7 +11264,7 @@
         <v>1.4109999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="45">
         <v>3.9410000000000001E-3</v>
       </c>
@@ -11366,7 +11371,7 @@
         <v>1.4580000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="45">
         <v>4.2680000000000001E-3</v>
       </c>
@@ -11473,7 +11478,7 @@
         <v>1.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
         <v>4.2640000000000004E-3</v>
       </c>
@@ -11580,7 +11585,7 @@
         <v>1.371E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="45">
         <v>4.4380000000000001E-3</v>
       </c>
@@ -11687,7 +11692,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
         <v>4.5649999999999996E-3</v>
       </c>
@@ -11794,7 +11799,7 @@
         <v>1.335E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="45">
         <v>4.8190000000000004E-3</v>
       </c>
@@ -11901,7 +11906,7 @@
         <v>1.2440000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="45">
         <v>4.8419999999999999E-3</v>
       </c>
@@ -12008,7 +12013,7 @@
         <v>1.3420000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="45">
         <v>4.7710000000000001E-3</v>
       </c>
@@ -12115,7 +12120,7 @@
         <v>1.325E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="45">
         <v>4.738E-3</v>
       </c>
@@ -12222,7 +12227,7 @@
         <v>1.317E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="45">
         <v>4.45E-3</v>
       </c>
@@ -12329,7 +12334,7 @@
         <v>1.3799999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="45">
         <v>4.3730000000000002E-3</v>
       </c>
@@ -12436,7 +12441,7 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="45">
         <v>4.189E-3</v>
       </c>
@@ -12543,7 +12548,7 @@
         <v>1.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="45">
         <v>4.0249999999999999E-3</v>
       </c>
@@ -12650,7 +12655,7 @@
         <v>1.521E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="45">
         <v>3.6120000000000002E-3</v>
       </c>
@@ -12757,7 +12762,7 @@
         <v>1.524E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="45">
         <v>3.3609999999999998E-3</v>
       </c>
@@ -12864,7 +12869,7 @@
         <v>1.456E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="45">
         <v>4.9649999999999998E-3</v>
       </c>
@@ -12984,12 +12989,12 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="16384" width="8.83203125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="45">
         <v>4.9671E-2</v>
       </c>
@@ -13096,7 +13101,7 @@
         <v>-1.5339E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="45">
         <v>4.2992000000000002E-2</v>
       </c>
@@ -13203,7 +13208,7 @@
         <v>-1.4078E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="45">
         <v>3.8170999999999997E-2</v>
       </c>
@@ -13310,7 +13315,7 @@
         <v>-1.1298000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="45">
         <v>3.0870999999999999E-2</v>
       </c>
@@ -13417,7 +13422,7 @@
         <v>-1.1594E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
         <v>2.6873999999999999E-2</v>
       </c>
@@ -13524,7 +13529,7 @@
         <v>-7.5690000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
         <v>2.7739E-2</v>
       </c>
@@ -13631,7 +13636,7 @@
         <v>-5.8700000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
         <v>2.2578000000000001E-2</v>
       </c>
@@ -13738,7 +13743,7 @@
         <v>-5.8409999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="45">
         <v>2.1312000000000001E-2</v>
       </c>
@@ -13845,7 +13850,7 @@
         <v>-4.1840000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
         <v>1.8941E-2</v>
       </c>
@@ -13952,7 +13957,7 @@
         <v>-2.9160000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <v>1.6641E-2</v>
       </c>
@@ -14059,7 +14064,7 @@
         <v>-2.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="45">
         <v>1.413E-2</v>
       </c>
@@ -14166,7 +14171,7 @@
         <v>-1.9109999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="45">
         <v>1.2898E-2</v>
       </c>
@@ -14273,7 +14278,7 @@
         <v>-1.284E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="45">
         <v>1.0531E-2</v>
       </c>
@@ -14380,7 +14385,7 @@
         <v>-7.6300000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="45">
         <v>1.0399E-2</v>
       </c>
@@ -14487,7 +14492,7 @@
         <v>-1.9599999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="45">
         <v>8.293E-3</v>
       </c>
@@ -14594,7 +14599,7 @@
         <v>-1.3300000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="45">
         <v>8.0870000000000004E-3</v>
       </c>
@@ -14701,7 +14706,7 @@
         <v>3.8999999999999999E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="45">
         <v>7.2480000000000001E-3</v>
       </c>
@@ -14808,7 +14813,7 @@
         <v>5.1400000000000003E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="45">
         <v>6.0369999999999998E-3</v>
       </c>
@@ -14915,7 +14920,7 @@
         <v>4.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="45">
         <v>6.6270000000000001E-3</v>
       </c>
@@ -15022,7 +15027,7 @@
         <v>7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="45">
         <v>5.5880000000000001E-3</v>
       </c>
@@ -15129,7 +15134,7 @@
         <v>8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="45">
         <v>5.8209999999999998E-3</v>
       </c>
@@ -15236,7 +15241,7 @@
         <v>7.8899999999999999E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="45">
         <v>4.8989999999999997E-3</v>
       </c>
@@ -15343,7 +15348,7 @@
         <v>1.0449999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="45">
         <v>5.4330000000000003E-3</v>
       </c>
@@ -15450,7 +15455,7 @@
         <v>8.9400000000000005E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="45">
         <v>4.9649999999999998E-3</v>
       </c>
@@ -15557,7 +15562,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="45">
         <v>4.5139999999999998E-3</v>
       </c>
@@ -15664,7 +15669,7 @@
         <v>9.1100000000000003E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="45">
         <v>4.6540000000000002E-3</v>
       </c>
@@ -15771,7 +15776,7 @@
         <v>1.034E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="45">
         <v>4.4590000000000003E-3</v>
       </c>
@@ -15878,7 +15883,7 @@
         <v>7.7200000000000001E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="45">
         <v>4.3769999999999998E-3</v>
       </c>
@@ -15985,7 +15990,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="45">
         <v>4.6740000000000002E-3</v>
       </c>
@@ -16092,7 +16097,7 @@
         <v>6.8300000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="45">
         <v>4.6309999999999997E-3</v>
       </c>
@@ -16199,7 +16204,7 @@
         <v>6.11E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="45">
         <v>5.0340000000000003E-3</v>
       </c>
@@ -16306,7 +16311,7 @@
         <v>6.2799999999999998E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="45">
         <v>5.1609999999999998E-3</v>
       </c>
@@ -16413,7 +16418,7 @@
         <v>4.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="45">
         <v>5.1910000000000003E-3</v>
       </c>
@@ -16520,7 +16525,7 @@
         <v>5.2400000000000005E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="45">
         <v>5.4440000000000001E-3</v>
       </c>
@@ -16627,7 +16632,7 @@
         <v>4.0099999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="45">
         <v>5.3899999999999998E-3</v>
       </c>
@@ -16734,7 +16739,7 @@
         <v>4.08E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="45">
         <v>5.5120000000000004E-3</v>
       </c>
@@ -16841,7 +16846,7 @@
         <v>3.5100000000000002E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="45">
         <v>5.7850000000000002E-3</v>
       </c>
@@ -16948,7 +16953,7 @@
         <v>4.5100000000000001E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="45">
         <v>5.4710000000000002E-3</v>
       </c>
@@ -17055,7 +17060,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="45">
         <v>5.6360000000000004E-3</v>
       </c>
@@ -17162,7 +17167,7 @@
         <v>4.4299999999999998E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="45">
         <v>5.5579999999999996E-3</v>
       </c>
@@ -17269,7 +17274,7 @@
         <v>3.1E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="45">
         <v>5.326E-3</v>
       </c>
@@ -17376,7 +17381,7 @@
         <v>2.9700000000000001E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="45">
         <v>5.7959999999999999E-3</v>
       </c>
@@ -17483,7 +17488,7 @@
         <v>4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="45">
         <v>5.6779999999999999E-3</v>
       </c>
@@ -17590,7 +17595,7 @@
         <v>4.8799999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="45">
         <v>7.0660000000000002E-3</v>
       </c>
@@ -17697,7 +17702,7 @@
         <v>1.134E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="45">
         <v>7.3870000000000003E-3</v>
       </c>
@@ -17804,7 +17809,7 @@
         <v>1.1640000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="45">
         <v>7.4419999999999998E-3</v>
       </c>
@@ -17911,7 +17916,7 @@
         <v>1.142E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="45">
         <v>7.5859999999999999E-3</v>
       </c>
@@ -18018,7 +18023,7 @@
         <v>1.1590000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="45">
         <v>8.0070000000000002E-3</v>
       </c>
@@ -18125,7 +18130,7 @@
         <v>1.1280000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="45">
         <v>8.1779999999999995E-3</v>
       </c>
@@ -18232,7 +18237,7 @@
         <v>1.072E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="45">
         <v>8.4550000000000007E-3</v>
       </c>
@@ -18339,7 +18344,7 @@
         <v>1.018E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="45">
         <v>8.2900000000000005E-3</v>
       </c>
@@ -18446,7 +18451,7 @@
         <v>9.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="45">
         <v>8.0579999999999992E-3</v>
       </c>
@@ -18553,7 +18558,7 @@
         <v>9.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>7.9220000000000002E-3</v>
       </c>
@@ -18660,7 +18665,7 @@
         <v>1.0150000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="45">
         <v>7.4289999999999998E-3</v>
       </c>
@@ -18767,7 +18772,7 @@
         <v>9.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="45">
         <v>7.3220000000000004E-3</v>
       </c>
@@ -18874,7 +18879,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="45">
         <v>6.9379999999999997E-3</v>
       </c>
@@ -18981,7 +18986,7 @@
         <v>8.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="45">
         <v>6.6410000000000002E-3</v>
       </c>
@@ -19088,7 +19093,7 @@
         <v>8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="45">
         <v>6.3210000000000002E-3</v>
       </c>
@@ -19195,7 +19200,7 @@
         <v>9.8700000000000003E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="45">
         <v>5.8529999999999997E-3</v>
       </c>
@@ -19302,7 +19307,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="45">
         <v>6.0200000000000002E-3</v>
       </c>
@@ -19409,7 +19414,7 @@
         <v>1.0169999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="45">
         <v>5.8430000000000001E-3</v>
       </c>
@@ -19516,7 +19521,7 @@
         <v>9.8700000000000003E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="45">
         <v>5.4980000000000003E-3</v>
       </c>
@@ -19623,7 +19628,7 @@
         <v>1.0989999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="45">
         <v>5.6369999999999996E-3</v>
       </c>
@@ -19730,7 +19735,7 @@
         <v>1.023E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="45">
         <v>5.2950000000000002E-3</v>
       </c>
@@ -19837,7 +19842,7 @@
         <v>1.016E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="45">
         <v>5.391E-3</v>
       </c>
@@ -19944,7 +19949,7 @@
         <v>1.0759999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
         <v>5.0289999999999996E-3</v>
       </c>
@@ -20051,7 +20056,7 @@
         <v>1.016E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="45">
         <v>4.7660000000000003E-3</v>
       </c>
@@ -20158,7 +20163,7 @@
         <v>9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="45">
         <v>4.9179999999999996E-3</v>
       </c>
@@ -20265,7 +20270,7 @@
         <v>1.005E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="45">
         <v>4.6740000000000002E-3</v>
       </c>
@@ -20372,7 +20377,7 @@
         <v>7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="45">
         <v>4.6880000000000003E-3</v>
       </c>
@@ -20479,7 +20484,7 @@
         <v>8.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="45">
         <v>5.0470000000000003E-3</v>
       </c>
@@ -20586,7 +20591,7 @@
         <v>7.9199999999999995E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="45">
         <v>4.4900000000000001E-3</v>
       </c>
@@ -20693,7 +20698,7 @@
         <v>5.9699999999999998E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
         <v>4.7840000000000001E-3</v>
       </c>
@@ -20800,7 +20805,7 @@
         <v>6.3100000000000005E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="45">
         <v>4.692E-3</v>
       </c>
@@ -20907,7 +20912,7 @@
         <v>3.7100000000000002E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
         <v>4.1240000000000001E-3</v>
       </c>
@@ -21014,7 +21019,7 @@
         <v>2.6600000000000001E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="45">
         <v>4.496E-3</v>
       </c>
@@ -21121,7 +21126,7 @@
         <v>3.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="45">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -21228,7 +21233,7 @@
         <v>8.8999999999999995E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="45">
         <v>4.3750000000000004E-3</v>
       </c>
@@ -21335,7 +21340,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="45">
         <v>4.7910000000000001E-3</v>
       </c>
@@ -21442,7 +21447,7 @@
         <v>7.2999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="45">
         <v>4.8440000000000002E-3</v>
       </c>
@@ -21549,7 +21554,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="45">
         <v>5.1380000000000002E-3</v>
       </c>
@@ -21656,7 +21661,7 @@
         <v>-5.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="45">
         <v>5.8770000000000003E-3</v>
       </c>
@@ -21763,7 +21768,7 @@
         <v>-2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="45">
         <v>5.7349999999999996E-3</v>
       </c>
@@ -21870,7 +21875,7 @@
         <v>-2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="45">
         <v>6.6600000000000001E-3</v>
       </c>
@@ -21977,7 +21982,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="45">
         <v>6.1879999999999999E-3</v>
       </c>
@@ -22084,7 +22089,7 @@
         <v>-8.5000000000000006E-5</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="45">
         <v>1.3940000000000001E-3</v>
       </c>
